--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jon/Documents/CS/Fall 2015/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jon/Documents/CS/Fall 2015/Project/csci3308-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>User</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Agile Sizing</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -74,6 +71,72 @@
   </si>
   <si>
     <t>N.01</t>
+  </si>
+  <si>
+    <t>As a developer, I want the software used to be open source so that project development is cost-effective</t>
+  </si>
+  <si>
+    <t>N.02</t>
+  </si>
+  <si>
+    <t>U.03</t>
+  </si>
+  <si>
+    <t>As a user, I want the micro controller to not consume too much power so that getting the data is not expensive</t>
+  </si>
+  <si>
+    <t>U.04</t>
+  </si>
+  <si>
+    <t>As a user, I want the device to be inexpensive so that I have an incentive to buy it</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>As a developer, I want the web server to be secure so that the data will not be tampered with</t>
+  </si>
+  <si>
+    <t>As a user, I want the data reported to be accurate so that the usage statistics are meaningful</t>
+  </si>
+  <si>
+    <t>F.02</t>
+  </si>
+  <si>
+    <t>As a user, want microcontrollers to determine when appliances are on and off so that I can track energy usage.</t>
+  </si>
+  <si>
+    <t>As a user, want to collect energy usage data so that I can reduce overall energy usage.</t>
+  </si>
+  <si>
+    <t>F.03</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>F.04</t>
+  </si>
+  <si>
+    <t>As a developer, I want microcontrollers to send data to a server so that I can process it in one place.</t>
+  </si>
+  <si>
+    <t>F.05</t>
+  </si>
+  <si>
+    <t>As a user, I want microcontrollers to be able to enable and disable power so I can turn things on and off.</t>
+  </si>
+  <si>
+    <t>As a user, I want to schedule things to run at certain times, so I can automate regular tasks.</t>
+  </si>
+  <si>
+    <t>F.06</t>
+  </si>
+  <si>
+    <t>N.03</t>
+  </si>
+  <si>
+    <t>As a developer, I want the previosly recorded data to still be intact if the micro controller should fail so that the time recoridng wans't wasted</t>
   </si>
 </sst>
 </file>
@@ -403,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,38 +495,66 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -473,15 +564,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -497,15 +590,94 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -515,15 +687,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -538,16 +713,50 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
